--- a/BackTest/2019-11-15 BackTest FAB.xlsx
+++ b/BackTest/2019-11-15 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.48</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>2.941176470588237</v>
+      </c>
       <c r="L12" t="n">
         <v>6.577000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.82</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-19.76047904191617</v>
+      </c>
       <c r="L13" t="n">
         <v>6.547</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.870000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-25.00000000000004</v>
+      </c>
       <c r="L14" t="n">
         <v>6.508999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.970000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-31.4285714285714</v>
+      </c>
       <c r="L15" t="n">
         <v>6.456999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.32</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-8.653846153846178</v>
+      </c>
       <c r="L16" t="n">
         <v>6.436999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.42</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-12.84403669724771</v>
+      </c>
       <c r="L17" t="n">
         <v>6.408999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.68</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-21.81069958847737</v>
+      </c>
       <c r="L18" t="n">
         <v>6.354999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.739999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>8.602150537634419</v>
+      </c>
       <c r="L19" t="n">
         <v>6.307999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-6.508875739644996</v>
+      </c>
       <c r="L20" t="n">
         <v>6.318999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.839999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-32.35294117647065</v>
+      </c>
       <c r="L21" t="n">
         <v>6.312999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.06</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.677419354838722</v>
+      </c>
       <c r="L22" t="n">
         <v>6.290999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.28</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.65822784810128</v>
+        <v>-3.546099290780131</v>
       </c>
       <c r="L23" t="n">
         <v>6.280999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>3.460000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.552870090634439</v>
+        <v>15.43624161073828</v>
       </c>
       <c r="L24" t="n">
         <v>6.293999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>3.500000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.969788519637463</v>
+        <v>-13.55932203389824</v>
       </c>
       <c r="L25" t="n">
         <v>6.312999999999998</v>
@@ -1564,7 +1586,7 @@
         <v>3.530000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.78247734138971</v>
+        <v>-8.108108108108086</v>
       </c>
       <c r="L26" t="n">
         <v>6.293999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.57401812688823</v>
+        <v>21.83908045977003</v>
       </c>
       <c r="L27" t="n">
         <v>6.286999999999997</v>
@@ -1662,7 +1684,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.57401812688823</v>
+        <v>16.04938271604934</v>
       </c>
       <c r="L28" t="n">
         <v>6.305999999999997</v>
@@ -1711,7 +1733,7 @@
         <v>3.58</v>
       </c>
       <c r="K29" t="n">
-        <v>-11.11111111111111</v>
+        <v>18.98734177215192</v>
       </c>
       <c r="L29" t="n">
         <v>6.315999999999997</v>
@@ -1760,7 +1782,7 @@
         <v>3.609999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>10.62271062271063</v>
+        <v>16.88311688311686</v>
       </c>
       <c r="L30" t="n">
         <v>6.333999999999996</v>
@@ -1809,7 +1831,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>1.17647058823527</v>
+        <v>-22.03389830508488</v>
       </c>
       <c r="L31" t="n">
         <v>6.342999999999996</v>
@@ -1860,7 +1882,7 @@
         <v>3.669999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.89497716894979</v>
+        <v>17.94871794871808</v>
       </c>
       <c r="L32" t="n">
         <v>6.327999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>3.669999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.621621621621636</v>
+        <v>-52.38095238095298</v>
       </c>
       <c r="L33" t="n">
         <v>6.334999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>3.719999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>3.783783783783803</v>
+        <v>-9.090909090909385</v>
       </c>
       <c r="L34" t="n">
         <v>6.328999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>3.829999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>3.225806451612935</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L35" t="n">
         <v>6.315999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>3.899999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>-13.9240506329114</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L36" t="n">
         <v>6.312999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>3.899999999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.108108108108128</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L37" t="n">
         <v>6.307999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>3.909999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>12.19512195121949</v>
+        <v>-3.030303030303259</v>
       </c>
       <c r="L38" t="n">
         <v>6.303999999999997</v>
@@ -2217,7 +2239,7 @@
         <v>3.909999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>7.692307692307693</v>
+        <v>-13.33333333333343</v>
       </c>
       <c r="L39" t="n">
         <v>6.302999999999996</v>
@@ -2268,7 +2290,7 @@
         <v>3.929999999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>14.03508771929827</v>
+        <v>7.142857142857347</v>
       </c>
       <c r="L40" t="n">
         <v>6.300999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K41" t="n">
-        <v>7.142857142857154</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L41" t="n">
         <v>6.299999999999997</v>
@@ -2370,7 +2392,7 @@
         <v>3.969999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.2857142857144</v>
+        <v>6.666666666666549</v>
       </c>
       <c r="L42" t="n">
         <v>6.301999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>4.059999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-35.29411764705897</v>
       </c>
       <c r="L43" t="n">
         <v>6.294999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>4.059999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-30.00000000000026</v>
+        <v>-4.347826086956824</v>
       </c>
       <c r="L44" t="n">
         <v>6.282999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>4.069999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>-26.31578947368443</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L45" t="n">
         <v>6.280999999999997</v>
@@ -2574,7 +2596,7 @@
         <v>4.109999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>-27.58620689655191</v>
+        <v>-61.90476190476186</v>
       </c>
       <c r="L46" t="n">
         <v>6.267999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>4.129999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>-27.58620689655172</v>
+        <v>-54.54545454545403</v>
       </c>
       <c r="L47" t="n">
         <v>6.256999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>4.139999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>-25.42372881355935</v>
+        <v>-47.8260869565214</v>
       </c>
       <c r="L48" t="n">
         <v>6.245999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>4.139999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>-21.42857142857153</v>
+        <v>-61.90476190476186</v>
       </c>
       <c r="L49" t="n">
         <v>6.234999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>4.189999999999998</v>
       </c>
       <c r="K50" t="n">
-        <v>-34.48275862068964</v>
+        <v>-65.21739130434773</v>
       </c>
       <c r="L50" t="n">
         <v>6.216999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>4.339999999999997</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.449275362318814</v>
+        <v>-2.702702702702651</v>
       </c>
       <c r="L51" t="n">
         <v>6.216999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>4.389999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.555555555555576</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L52" t="n">
         <v>6.210999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>4.399999999999997</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.109589041095937</v>
+        <v>11.76470588235299</v>
       </c>
       <c r="L53" t="n">
         <v>6.214999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>4.399999999999997</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.76470588235299</v>
+        <v>15.15151515151513</v>
       </c>
       <c r="L54" t="n">
         <v>6.218999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>4.399999999999997</v>
       </c>
       <c r="K55" t="n">
-        <v>5.263157894736744</v>
+        <v>31.03448275862073</v>
       </c>
       <c r="L55" t="n">
         <v>6.224</v>
@@ -3084,7 +3106,7 @@
         <v>4.409999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.882352941176532</v>
+        <v>28.57142857142844</v>
       </c>
       <c r="L56" t="n">
         <v>6.234</v>
@@ -3135,7 +3157,7 @@
         <v>4.409999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>-5.882352941176532</v>
+        <v>25.92592592592583</v>
       </c>
       <c r="L57" t="n">
         <v>6.242</v>
@@ -3186,7 +3208,7 @@
         <v>4.419999999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.882352941176348</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L58" t="n">
         <v>6.25</v>
@@ -3237,7 +3259,7 @@
         <v>4.439999999999998</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.433962264150905</v>
+        <v>43.99999999999977</v>
       </c>
       <c r="L59" t="n">
         <v>6.256</v>
@@ -3288,7 +3310,7 @@
         <v>4.449999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.53846153846164</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L60" t="n">
         <v>6.268</v>
@@ -3339,7 +3361,7 @@
         <v>4.449999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.122448979591896</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L61" t="n">
         <v>6.265000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>4.469999999999997</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.99999999999994</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L62" t="n">
         <v>6.265000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>4.489999999999997</v>
       </c>
       <c r="K63" t="n">
-        <v>11.62790697674418</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L63" t="n">
         <v>6.266</v>
@@ -3492,7 +3514,7 @@
         <v>4.509999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>6.666666666666746</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L64" t="n">
         <v>6.265</v>
@@ -3543,7 +3565,7 @@
         <v>4.559999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>18.36734693877554</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L65" t="n">
         <v>6.269</v>
@@ -3594,7 +3616,7 @@
         <v>4.559999999999996</v>
       </c>
       <c r="K66" t="n">
-        <v>28.88888888888897</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L66" t="n">
         <v>6.272000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>4.619999999999996</v>
       </c>
       <c r="K67" t="n">
-        <v>10.20408163265308</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L67" t="n">
         <v>6.269000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>4.659999999999996</v>
       </c>
       <c r="K68" t="n">
-        <v>15.38461538461546</v>
+        <v>9.090909090909385</v>
       </c>
       <c r="L68" t="n">
         <v>6.269000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>4.719999999999996</v>
       </c>
       <c r="K69" t="n">
-        <v>3.448275862068902</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L69" t="n">
         <v>6.265000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>4.769999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>20.68965517241372</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>6.265000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>4.819999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>-16.66666666666673</v>
+        <v>-8.571428571428672</v>
       </c>
       <c r="L71" t="n">
         <v>6.260000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>4.869999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>4.16666666666659</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>6.262000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>4.879999999999995</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L73" t="n">
         <v>6.261000000000003</v>
@@ -4002,7 +4024,7 @@
         <v>4.879999999999995</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L74" t="n">
         <v>6.262000000000003</v>
@@ -4053,7 +4075,7 @@
         <v>4.949999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>12.7272727272728</v>
+        <v>7.692307692307762</v>
       </c>
       <c r="L75" t="n">
         <v>6.265000000000003</v>
@@ -4104,7 +4126,7 @@
         <v>4.979999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>15.78947368421067</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>6.271000000000003</v>
@@ -4155,7 +4177,7 @@
         <v>4.989999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>13.79310344827587</v>
+        <v>21.21212121212097</v>
       </c>
       <c r="L77" t="n">
         <v>6.282000000000003</v>
@@ -4206,7 +4228,7 @@
         <v>5.009999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>15.25423728813557</v>
+        <v>51.72413793103444</v>
       </c>
       <c r="L78" t="n">
         <v>6.291000000000002</v>
@@ -4257,7 +4279,7 @@
         <v>5.019999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>20.68965517241384</v>
+        <v>43.99999999999997</v>
       </c>
       <c r="L79" t="n">
         <v>6.307000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>5.099999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>29.23076923076932</v>
+        <v>85.71428571428544</v>
       </c>
       <c r="L80" t="n">
         <v>6.326000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>5.109999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>30.30303030303036</v>
+        <v>83.33333333333303</v>
       </c>
       <c r="L81" t="n">
         <v>6.351000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>5.109999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>34.37499999999998</v>
+        <v>91.30434782608641</v>
       </c>
       <c r="L82" t="n">
         <v>6.371000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>5.109999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>32.25806451612905</v>
+        <v>91.30434782608641</v>
       </c>
       <c r="L83" t="n">
         <v>6.392000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>5.119999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>34.4262295081967</v>
+        <v>76.47058823529369</v>
       </c>
       <c r="L84" t="n">
         <v>6.412000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>5.159999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>6.421000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>5.279999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L86" t="n">
         <v>6.415000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>5.299999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>5.88235294117647</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L87" t="n">
         <v>6.408000000000003</v>
@@ -4716,7 +4738,7 @@
         <v>5.409999999999996</v>
       </c>
       <c r="K88" t="n">
-        <v>14.66666666666659</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="L88" t="n">
         <v>6.410000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>5.489999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>32.46753246753249</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="L89" t="n">
         <v>6.419000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>5.569999999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>15.00000000000002</v>
+        <v>-17.39130434782614</v>
       </c>
       <c r="L90" t="n">
         <v>6.412000000000003</v>
@@ -4869,7 +4891,7 @@
         <v>5.569999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>22.66666666666666</v>
+        <v>-17.39130434782614</v>
       </c>
       <c r="L91" t="n">
         <v>6.404000000000003</v>
@@ -4920,7 +4942,7 @@
         <v>5.569999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>17.14285714285715</v>
+        <v>-17.39130434782614</v>
       </c>
       <c r="L92" t="n">
         <v>6.396000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>5.639999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>6.395000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>5.639999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>26.31578947368421</v>
+        <v>8.333333333333348</v>
       </c>
       <c r="L94" t="n">
         <v>6.395000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>5.649999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>19.99999999999995</v>
+        <v>45.94594594594603</v>
       </c>
       <c r="L95" t="n">
         <v>6.400000000000003</v>
@@ -5124,7 +5146,7 @@
         <v>5.649999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>16.41791044776111</v>
+        <v>54.28571428571421</v>
       </c>
       <c r="L96" t="n">
         <v>6.417000000000003</v>
@@ -5175,7 +5197,7 @@
         <v>5.649999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>18.18181818181822</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>6.436000000000003</v>
@@ -5226,7 +5248,7 @@
         <v>5.769999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.631578947368486</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L98" t="n">
         <v>6.432000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>5.849999999999996</v>
       </c>
       <c r="K99" t="n">
-        <v>6.024096385542153</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>6.428000000000003</v>
@@ -5328,7 +5350,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K100" t="n">
-        <v>-20</v>
+        <v>-25.58139534883709</v>
       </c>
       <c r="L100" t="n">
         <v>6.417000000000003</v>
@@ -5379,7 +5401,7 @@
         <v>6.019999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>-23.07692307692309</v>
+        <v>-28.88888888888885</v>
       </c>
       <c r="L101" t="n">
         <v>6.404000000000003</v>
@@ -5430,7 +5452,7 @@
         <v>6.039999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>-20.43010752688167</v>
+        <v>-44.99999999999989</v>
       </c>
       <c r="L102" t="n">
         <v>6.393000000000003</v>
@@ -5481,7 +5503,7 @@
         <v>6.039999999999996</v>
       </c>
       <c r="K103" t="n">
-        <v>-20.43010752688167</v>
+        <v>-44.99999999999989</v>
       </c>
       <c r="L103" t="n">
         <v>6.375000000000004</v>
@@ -5532,7 +5554,7 @@
         <v>6.039999999999996</v>
       </c>
       <c r="K104" t="n">
-        <v>-19.56521739130432</v>
+        <v>-48.71794871794852</v>
       </c>
       <c r="L104" t="n">
         <v>6.357000000000003</v>
@@ -5583,7 +5605,7 @@
         <v>6.089999999999996</v>
       </c>
       <c r="K105" t="n">
-        <v>-9.677419354838698</v>
+        <v>-31.81818181818172</v>
       </c>
       <c r="L105" t="n">
         <v>6.343000000000004</v>
@@ -5634,7 +5656,7 @@
         <v>6.119999999999997</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-36.17021276595738</v>
       </c>
       <c r="L106" t="n">
         <v>6.326000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>6.159999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>-2.32558139534889</v>
+        <v>-23.07692307692301</v>
       </c>
       <c r="L107" t="n">
         <v>6.305000000000004</v>
@@ -5736,7 +5758,7 @@
         <v>6.169999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L108" t="n">
         <v>6.297000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>6.189999999999997</v>
       </c>
       <c r="K109" t="n">
-        <v>-25.71428571428563</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L109" t="n">
         <v>6.283000000000003</v>
@@ -5838,7 +5860,7 @@
         <v>6.309999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>2.702702702702761</v>
+        <v>51.72413793103444</v>
       </c>
       <c r="L110" t="n">
         <v>6.296000000000004</v>
@@ -5889,7 +5911,7 @@
         <v>6.319999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>1.333333333333422</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L111" t="n">
         <v>6.310000000000004</v>
@@ -5940,7 +5962,7 @@
         <v>6.339999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>-1.298701298701269</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L112" t="n">
         <v>6.320000000000005</v>
@@ -5991,7 +6013,7 @@
         <v>6.339999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>-11.42857142857142</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L113" t="n">
         <v>6.330000000000004</v>
@@ -6042,7 +6064,7 @@
         <v>6.359999999999997</v>
       </c>
       <c r="K114" t="n">
-        <v>-13.88888888888883</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L114" t="n">
         <v>6.338000000000004</v>
@@ -6093,7 +6115,7 @@
         <v>6.369999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>-16.66666666666665</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L115" t="n">
         <v>6.340000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>6.409999999999997</v>
       </c>
       <c r="K116" t="n">
-        <v>-21.05263157894735</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L116" t="n">
         <v>6.341000000000004</v>
@@ -6195,7 +6217,7 @@
         <v>6.429999999999997</v>
       </c>
       <c r="K117" t="n">
-        <v>-23.07692307692301</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L117" t="n">
         <v>6.344000000000005</v>
@@ -6246,7 +6268,7 @@
         <v>6.459999999999997</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.347826086956421</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L118" t="n">
         <v>6.349000000000006</v>
@@ -6297,7 +6319,7 @@
         <v>6.489999999999997</v>
       </c>
       <c r="K119" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L119" t="n">
         <v>6.355000000000005</v>
@@ -6348,7 +6370,7 @@
         <v>6.489999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>14.28571428571413</v>
+        <v>-29.41176470588278</v>
       </c>
       <c r="L120" t="n">
         <v>6.349000000000006</v>
@@ -6399,7 +6421,7 @@
         <v>6.599999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>34.48275862068963</v>
+        <v>30.76923076923082</v>
       </c>
       <c r="L121" t="n">
         <v>6.355000000000005</v>
@@ -6450,7 +6472,7 @@
         <v>6.689999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>41.53846153846145</v>
+        <v>48.5714285714286</v>
       </c>
       <c r="L122" t="n">
         <v>6.372000000000005</v>
@@ -6501,7 +6523,7 @@
         <v>6.689999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>41.53846153846145</v>
+        <v>57.57575757575741</v>
       </c>
       <c r="L123" t="n">
         <v>6.389000000000005</v>
@@ -6552,7 +6574,7 @@
         <v>6.699999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>42.42424242424232</v>
+        <v>63.63636363636378</v>
       </c>
       <c r="L124" t="n">
         <v>6.409000000000004</v>
@@ -6603,7 +6625,7 @@
         <v>6.709999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>38.70967741935481</v>
+        <v>86.66666666666694</v>
       </c>
       <c r="L125" t="n">
         <v>6.431000000000006</v>
@@ -6654,7 +6676,7 @@
         <v>6.709999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>45.7627118644068</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>6.457000000000005</v>
@@ -6705,7 +6727,7 @@
         <v>6.709999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>56.36363636363638</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>6.485000000000004</v>
@@ -6756,7 +6778,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>57.89473684210525</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
         <v>6.513000000000003</v>
@@ -6807,7 +6829,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>56.36363636363632</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>6.538000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>44.18604651162782</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>6.563000000000002</v>
@@ -6909,7 +6931,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>47.61904761904746</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>6.577000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>55.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>6.582000000000003</v>
@@ -7011,7 +7033,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>55.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>6.587000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>6.809999999999997</v>
       </c>
       <c r="K134" t="n">
-        <v>68.88888888888877</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>6.598000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>6.809999999999997</v>
       </c>
       <c r="K135" t="n">
-        <v>72.72727272727288</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>6.608000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>6.829999999999997</v>
       </c>
       <c r="K136" t="n">
-        <v>80.95238095238132</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L136" t="n">
         <v>6.616000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>6.849999999999996</v>
       </c>
       <c r="K137" t="n">
-        <v>90.47619047619065</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L137" t="n">
         <v>6.626000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>6.849999999999996</v>
       </c>
       <c r="K138" t="n">
-        <v>89.74358974358994</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L138" t="n">
         <v>6.633000000000003</v>
@@ -7317,7 +7339,7 @@
         <v>6.859999999999996</v>
       </c>
       <c r="K139" t="n">
-        <v>83.78378378378409</v>
+        <v>50.00000000000075</v>
       </c>
       <c r="L139" t="n">
         <v>6.639000000000003</v>
@@ -7368,7 +7390,7 @@
         <v>6.879999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>74.35897435897442</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L140" t="n">
         <v>6.643000000000003</v>
@@ -7419,7 +7441,7 @@
         <v>6.889999999999997</v>
       </c>
       <c r="K141" t="n">
-        <v>65.51724137931048</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L141" t="n">
         <v>6.648000000000005</v>
@@ -7470,7 +7492,7 @@
         <v>6.889999999999997</v>
       </c>
       <c r="K142" t="n">
-        <v>50.00000000000022</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L142" t="n">
         <v>6.653000000000006</v>
@@ -7521,7 +7543,7 @@
         <v>7.019999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.09090909090914</v>
+        <v>-71.4285714285713</v>
       </c>
       <c r="L143" t="n">
         <v>6.645000000000006</v>
@@ -7572,7 +7594,7 @@
         <v>7.159999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>21.73913043478264</v>
+        <v>-2.857142857142784</v>
       </c>
       <c r="L144" t="n">
         <v>6.644000000000005</v>
@@ -7623,7 +7645,7 @@
         <v>7.179999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>14.89361702127642</v>
+        <v>-2.857142857143031</v>
       </c>
       <c r="L145" t="n">
         <v>6.641000000000005</v>
@@ -7674,7 +7696,7 @@
         <v>7.429999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>-25.00000000000003</v>
+        <v>-48.27586206896533</v>
       </c>
       <c r="L146" t="n">
         <v>6.615000000000005</v>
@@ -7725,7 +7747,7 @@
         <v>7.529999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.756097560975594</v>
+        <v>-26.47058823529395</v>
       </c>
       <c r="L147" t="n">
         <v>6.597000000000004</v>
@@ -7776,7 +7798,7 @@
         <v>7.56</v>
       </c>
       <c r="K148" t="n">
-        <v>-17.07317073170721</v>
+        <v>-28.57142857142844</v>
       </c>
       <c r="L148" t="n">
         <v>6.576000000000003</v>
@@ -7827,7 +7849,7 @@
         <v>7.6</v>
       </c>
       <c r="K149" t="n">
-        <v>-11.6279069767441</v>
+        <v>-19.44444444444431</v>
       </c>
       <c r="L149" t="n">
         <v>6.560000000000004</v>
@@ -7878,7 +7900,7 @@
         <v>7.6</v>
       </c>
       <c r="K150" t="n">
-        <v>-11.6279069767441</v>
+        <v>-21.12676056338025</v>
       </c>
       <c r="L150" t="n">
         <v>6.546000000000004</v>
@@ -7929,7 +7951,7 @@
         <v>7.6</v>
       </c>
       <c r="K151" t="n">
-        <v>-11.6279069767441</v>
+        <v>-21.12676056338025</v>
       </c>
       <c r="L151" t="n">
         <v>6.531000000000003</v>
@@ -7980,7 +8002,7 @@
         <v>7.6</v>
       </c>
       <c r="K152" t="n">
-        <v>-11.6279069767441</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L152" t="n">
         <v>6.516000000000003</v>
@@ -8031,7 +8053,7 @@
         <v>7.6</v>
       </c>
       <c r="K153" t="n">
-        <v>-11.6279069767441</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L153" t="n">
         <v>6.514000000000003</v>
@@ -8082,7 +8104,7 @@
         <v>7.75</v>
       </c>
       <c r="K154" t="n">
-        <v>-2.127659574468033</v>
+        <v>1.754385964912395</v>
       </c>
       <c r="L154" t="n">
         <v>6.513000000000003</v>
@@ -8133,7 +8155,7 @@
         <v>7.760000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-3.157894736842119</v>
+        <v>75.75757575757534</v>
       </c>
       <c r="L155" t="n">
         <v>6.513000000000003</v>
@@ -8184,7 +8206,7 @@
         <v>7.77</v>
       </c>
       <c r="K156" t="n">
-        <v>-2.127659574468125</v>
+        <v>58.33333333333294</v>
       </c>
       <c r="L156" t="n">
         <v>6.537000000000003</v>
@@ -8235,7 +8257,7 @@
         <v>7.98</v>
       </c>
       <c r="K157" t="n">
-        <v>-22.12389380530965</v>
+        <v>-9.523809523809513</v>
       </c>
       <c r="L157" t="n">
         <v>6.530000000000004</v>
@@ -8286,7 +8308,7 @@
         <v>8</v>
       </c>
       <c r="K158" t="n">
-        <v>-23.4782608695651</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L158" t="n">
         <v>6.524000000000005</v>
@@ -8337,7 +8359,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>-17.64705882352934</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L159" t="n">
         <v>6.519000000000005</v>
@@ -8388,7 +8410,7 @@
         <v>8.07</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.64705882352935</v>
+        <v>-14.89361702127664</v>
       </c>
       <c r="L160" t="n">
         <v>6.512000000000006</v>
@@ -8439,7 +8461,7 @@
         <v>8.1</v>
       </c>
       <c r="K161" t="n">
-        <v>-20.66115702479334</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L161" t="n">
         <v>6.502000000000007</v>
@@ -8490,7 +8512,7 @@
         <v>8.120000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>-21.95121951219509</v>
+        <v>-23.07692307692304</v>
       </c>
       <c r="L162" t="n">
         <v>6.490000000000006</v>
@@ -8541,7 +8563,7 @@
         <v>8.120000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.72727272727266</v>
+        <v>-72.97297297297291</v>
       </c>
       <c r="L163" t="n">
         <v>6.478000000000006</v>
@@ -8592,7 +8614,7 @@
         <v>8.170000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>-22.77227722772274</v>
+        <v>-51.21951219512182</v>
       </c>
       <c r="L164" t="n">
         <v>6.456000000000006</v>
@@ -8643,7 +8665,7 @@
         <v>8.260000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-11.11111111111109</v>
+        <v>-22.44897959183675</v>
       </c>
       <c r="L165" t="n">
         <v>6.444000000000005</v>
@@ -8694,7 +8716,7 @@
         <v>8.280000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>17.64705882352941</v>
+        <v>39.99999999999994</v>
       </c>
       <c r="L166" t="n">
         <v>6.435000000000007</v>
@@ -8745,7 +8767,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>18.60465116279069</v>
+        <v>64.102564102564</v>
       </c>
       <c r="L167" t="n">
         <v>6.458000000000007</v>
@@ -8796,7 +8818,7 @@
         <v>8.490000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>9.677419354838669</v>
+        <v>22.72727272727258</v>
       </c>
       <c r="L168" t="n">
         <v>6.473000000000006</v>
@@ -8847,7 +8869,7 @@
         <v>8.490000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>5.617977528089853</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L169" t="n">
         <v>6.483000000000006</v>
@@ -8898,7 +8920,7 @@
         <v>8.520000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>8.695652173913018</v>
+        <v>42.85714285714243</v>
       </c>
       <c r="L170" t="n">
         <v>6.498000000000005</v>
@@ -8949,7 +8971,7 @@
         <v>8.570000000000004</v>
       </c>
       <c r="K171" t="n">
-        <v>3.092783505154651</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L171" t="n">
         <v>6.511000000000005</v>
@@ -9000,7 +9022,7 @@
         <v>8.570000000000004</v>
       </c>
       <c r="K172" t="n">
-        <v>3.092783505154651</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L172" t="n">
         <v>6.526000000000005</v>
@@ -9051,7 +9073,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>-9.090909090909033</v>
+        <v>-5.660377358490433</v>
       </c>
       <c r="L173" t="n">
         <v>6.528000000000006</v>
@@ -9102,7 +9124,7 @@
         <v>8.890000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>-5.263157894736875</v>
+        <v>11.11111111111114</v>
       </c>
       <c r="L174" t="n">
         <v>6.544000000000006</v>
@@ -9153,7 +9175,7 @@
         <v>8.920000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>-6.896551724137931</v>
+        <v>3.124999999999931</v>
       </c>
       <c r="L175" t="n">
         <v>6.548000000000006</v>
@@ -9204,7 +9226,7 @@
         <v>8.970000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>-9.999999999999993</v>
+        <v>-24.13793103448278</v>
       </c>
       <c r="L176" t="n">
         <v>6.545000000000006</v>
@@ -9255,7 +9277,7 @@
         <v>8.990000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>6.930693069306948</v>
+        <v>-11.99999999999992</v>
       </c>
       <c r="L177" t="n">
         <v>6.529000000000005</v>
@@ -9306,7 +9328,7 @@
         <v>9.080000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>16.66666666666661</v>
+        <v>5.084745762711908</v>
       </c>
       <c r="L178" t="n">
         <v>6.532000000000005</v>
@@ -9357,7 +9379,7 @@
         <v>9.150000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>5.454545454545412</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L179" t="n">
         <v>6.528000000000006</v>
@@ -9408,7 +9430,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>1.754385964912321</v>
+        <v>-12.50000000000007</v>
       </c>
       <c r="L180" t="n">
         <v>6.515000000000006</v>
@@ -9459,7 +9481,7 @@
         <v>9.270000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.8547008547009112</v>
+        <v>-20.00000000000015</v>
       </c>
       <c r="L181" t="n">
         <v>6.501000000000007</v>
@@ -9510,7 +9532,7 @@
         <v>9.350000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-5.691056910569127</v>
+        <v>-13.84615384615399</v>
       </c>
       <c r="L182" t="n">
         <v>6.479000000000006</v>
@@ -9561,7 +9583,7 @@
         <v>9.450000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>2.255639097744377</v>
+        <v>-32.14285714285706</v>
       </c>
       <c r="L183" t="n">
         <v>6.480000000000006</v>
@@ -9612,7 +9634,7 @@
         <v>9.490000000000002</v>
       </c>
       <c r="K184" t="n">
-        <v>1.51515151515155</v>
+        <v>-19.29824561403498</v>
       </c>
       <c r="L184" t="n">
         <v>6.466000000000006</v>
@@ -9663,7 +9685,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>-6.451612903225739</v>
+        <v>-13.20754716981122</v>
       </c>
       <c r="L185" t="n">
         <v>6.454000000000005</v>
@@ -9714,7 +9736,7 @@
         <v>9.630000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>-17.03703703703705</v>
+        <v>-28.12500000000007</v>
       </c>
       <c r="L186" t="n">
         <v>6.434000000000005</v>
@@ -9765,7 +9787,7 @@
         <v>9.690000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-30.76923076923078</v>
+        <v>-54.09836065573776</v>
       </c>
       <c r="L187" t="n">
         <v>6.410000000000005</v>
@@ -9816,7 +9838,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-14.50381679389311</v>
+        <v>-23.07692307692304</v>
       </c>
       <c r="L188" t="n">
         <v>6.388000000000005</v>
@@ -9867,7 +9889,7 @@
         <v>9.920000000000002</v>
       </c>
       <c r="K189" t="n">
-        <v>-21.67832167832166</v>
+        <v>-29.57746478873236</v>
       </c>
       <c r="L189" t="n">
         <v>6.361000000000005</v>
@@ -9918,7 +9940,7 @@
         <v>10</v>
       </c>
       <c r="K190" t="n">
-        <v>-17.56756756756757</v>
+        <v>-9.589041095890323</v>
       </c>
       <c r="L190" t="n">
         <v>6.348000000000004</v>
@@ -9969,7 +9991,7 @@
         <v>10.08</v>
       </c>
       <c r="K191" t="n">
-        <v>-8.609271523178812</v>
+        <v>12.32876712328777</v>
       </c>
       <c r="L191" t="n">
         <v>6.349000000000006</v>
@@ -10020,7 +10042,7 @@
         <v>10.14</v>
       </c>
       <c r="K192" t="n">
-        <v>-12.10191082802551</v>
+        <v>-10.14492753623193</v>
       </c>
       <c r="L192" t="n">
         <v>6.352000000000006</v>
@@ -10071,7 +10093,7 @@
         <v>10.29</v>
       </c>
       <c r="K193" t="n">
-        <v>-13.20754716981132</v>
+        <v>-32.49999999999994</v>
       </c>
       <c r="L193" t="n">
         <v>6.330000000000005</v>
@@ -10122,7 +10144,7 @@
         <v>10.31</v>
       </c>
       <c r="K194" t="n">
-        <v>-29.57746478873239</v>
+        <v>-33.33333333333337</v>
       </c>
       <c r="L194" t="n">
         <v>6.302000000000005</v>
@@ -10173,7 +10195,7 @@
         <v>10.32</v>
       </c>
       <c r="K195" t="n">
-        <v>-28.57142857142853</v>
+        <v>-21.73913043478255</v>
       </c>
       <c r="L195" t="n">
         <v>6.274000000000005</v>
@@ -10224,7 +10246,7 @@
         <v>10.36</v>
       </c>
       <c r="K196" t="n">
-        <v>-22.30215827338126</v>
+        <v>-7.462686567164134</v>
       </c>
       <c r="L196" t="n">
         <v>6.263000000000005</v>
@@ -10275,7 +10297,7 @@
         <v>10.39</v>
       </c>
       <c r="K197" t="n">
-        <v>-18.57142857142853</v>
+        <v>-22.0338983050846</v>
       </c>
       <c r="L197" t="n">
         <v>6.261000000000005</v>
@@ -10326,7 +10348,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-27.27272727272722</v>
+        <v>-4.166666666666728</v>
       </c>
       <c r="L198" t="n">
         <v>6.247000000000005</v>
@@ -10377,7 +10399,7 @@
         <v>10.42000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-21.25984251968496</v>
+        <v>-19.04761904761891</v>
       </c>
       <c r="L199" t="n">
         <v>6.247000000000005</v>
@@ -10428,7 +10450,7 @@
         <v>10.42000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-17.35537190082638</v>
+        <v>-47.05882352941133</v>
       </c>
       <c r="L200" t="n">
         <v>6.239000000000005</v>
@@ -10479,7 +10501,7 @@
         <v>10.42000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-13.04347826086947</v>
+        <v>-35.71428571428522</v>
       </c>
       <c r="L201" t="n">
         <v>6.223000000000005</v>
@@ -10530,7 +10552,7 @@
         <v>10.52</v>
       </c>
       <c r="K202" t="n">
-        <v>2.564102564102578</v>
+        <v>65.21739130434698</v>
       </c>
       <c r="L202" t="n">
         <v>6.223000000000004</v>
@@ -10581,7 +10603,7 @@
         <v>10.52</v>
       </c>
       <c r="K203" t="n">
-        <v>-6.54205607476637</v>
+        <v>80.95238095237991</v>
       </c>
       <c r="L203" t="n">
         <v>6.238000000000005</v>
@@ -10632,7 +10654,7 @@
         <v>10.57</v>
       </c>
       <c r="K204" t="n">
-        <v>-14.8148148148148</v>
+        <v>51.99999999999959</v>
       </c>
       <c r="L204" t="n">
         <v>6.250000000000005</v>
@@ -10683,7 +10705,7 @@
         <v>10.65</v>
       </c>
       <c r="K205" t="n">
-        <v>-20</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L205" t="n">
         <v>6.255000000000005</v>
@@ -10734,7 +10756,7 @@
         <v>10.69</v>
       </c>
       <c r="K206" t="n">
-        <v>-13.20754716981126</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L206" t="n">
         <v>6.252000000000005</v>
@@ -10785,7 +10807,7 @@
         <v>10.69</v>
       </c>
       <c r="K207" t="n">
-        <v>-7.99999999999998</v>
+        <v>-17.24137931034482</v>
       </c>
       <c r="L207" t="n">
         <v>6.246000000000005</v>
@@ -10836,7 +10858,7 @@
         <v>10.7</v>
       </c>
       <c r="K208" t="n">
-        <v>-22.22222222222215</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L208" t="n">
         <v>6.240000000000005</v>
@@ -10887,7 +10909,7 @@
         <v>10.71</v>
       </c>
       <c r="K209" t="n">
-        <v>-11.39240506329108</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L209" t="n">
         <v>6.231000000000005</v>
@@ -10938,7 +10960,7 @@
         <v>10.71</v>
       </c>
       <c r="K210" t="n">
-        <v>-23.94366197183089</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L210" t="n">
         <v>6.222000000000005</v>
@@ -10989,7 +11011,7 @@
         <v>10.72000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>-40.62499999999984</v>
+        <v>-99.99999999999956</v>
       </c>
       <c r="L211" t="n">
         <v>6.212000000000004</v>
@@ -11040,7 +11062,7 @@
         <v>10.73000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>-35.59322033898284</v>
+        <v>-99.99999999999957</v>
       </c>
       <c r="L212" t="n">
         <v>6.191000000000004</v>
@@ -11091,7 +11113,7 @@
         <v>10.74000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-11.1111111111112</v>
+        <v>-88.23529411764638</v>
       </c>
       <c r="L213" t="n">
         <v>6.171000000000004</v>
@@ -11142,7 +11164,7 @@
         <v>10.88000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>19.29824561403501</v>
+        <v>30.43478260869548</v>
       </c>
       <c r="L214" t="n">
         <v>6.170000000000003</v>
@@ -11193,7 +11215,7 @@
         <v>10.88000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>21.42857142857129</v>
+        <v>57.89473684210505</v>
       </c>
       <c r="L215" t="n">
         <v>6.177000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>10.91000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>9.090909090908989</v>
+        <v>36.363636363636</v>
       </c>
       <c r="L216" t="n">
         <v>6.185000000000004</v>
@@ -11295,7 +11317,7 @@
         <v>10.95000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>10.7142857142856</v>
+        <v>51.99999999999959</v>
       </c>
       <c r="L217" t="n">
         <v>6.197000000000005</v>
@@ -11346,7 +11368,7 @@
         <v>10.96000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>10.71428571428579</v>
+        <v>51.99999999999959</v>
       </c>
       <c r="L218" t="n">
         <v>6.209000000000005</v>
@@ -11397,7 +11419,7 @@
         <v>10.99000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>1.754385964912242</v>
+        <v>35.71428571428545</v>
       </c>
       <c r="L219" t="n">
         <v>6.219000000000005</v>
@@ -11448,7 +11470,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>35.71428571428599</v>
       </c>
       <c r="L220" t="n">
         <v>6.228000000000005</v>
@@ -11499,7 +11521,7 @@
         <v>11.03</v>
       </c>
       <c r="K221" t="n">
-        <v>-4.918032786885291</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L221" t="n">
         <v>6.235000000000005</v>
@@ -11550,7 +11572,7 @@
         <v>11.03</v>
       </c>
       <c r="K222" t="n">
-        <v>-25.49019607843136</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L222" t="n">
         <v>6.243000000000004</v>
@@ -11601,7 +11623,7 @@
         <v>11.1</v>
       </c>
       <c r="K223" t="n">
-        <v>-10.34482758620683</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>6.257000000000003</v>
@@ -11652,7 +11674,7 @@
         <v>11.11000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.703703703703771</v>
+        <v>-4.347826086956808</v>
       </c>
       <c r="L224" t="n">
         <v>6.256000000000003</v>
@@ -11703,7 +11725,7 @@
         <v>11.11000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>13.04347826086941</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L225" t="n">
         <v>6.255000000000003</v>
@@ -11754,7 +11776,7 @@
         <v>11.13000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>18.18181818181815</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L226" t="n">
         <v>6.255000000000003</v>
@@ -11805,7 +11827,7 @@
         <v>11.13000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>18.18181818181815</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L227" t="n">
         <v>6.251000000000003</v>
@@ -11856,7 +11878,7 @@
         <v>11.15000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>24.44444444444426</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L228" t="n">
         <v>6.250000000000003</v>
@@ -11907,7 +11929,7 @@
         <v>11.15000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>27.27272727272701</v>
+        <v>19.99999999999953</v>
       </c>
       <c r="L229" t="n">
         <v>6.252000000000002</v>
@@ -11958,7 +11980,7 @@
         <v>11.18000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>19.14893617021271</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L230" t="n">
         <v>6.252000000000002</v>
@@ -12009,7 +12031,7 @@
         <v>11.18000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>21.73913043478277</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L231" t="n">
         <v>6.255000000000002</v>
@@ -12060,7 +12082,7 @@
         <v>11.19</v>
       </c>
       <c r="K232" t="n">
-        <v>21.73913043478277</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L232" t="n">
         <v>6.257000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>11.21</v>
       </c>
       <c r="K233" t="n">
-        <v>14.89361702127669</v>
+        <v>-60.00000000000089</v>
       </c>
       <c r="L233" t="n">
         <v>6.250000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>11.24000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>-11.11111111111114</v>
+        <v>-23.07692307692276</v>
       </c>
       <c r="L234" t="n">
         <v>6.247000000000002</v>
@@ -12213,7 +12235,7 @@
         <v>11.27</v>
       </c>
       <c r="K235" t="n">
-        <v>-2.564102564102745</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L235" t="n">
         <v>6.247000000000002</v>
@@ -12264,7 +12286,7 @@
         <v>11.31</v>
       </c>
       <c r="K236" t="n">
-        <v>-4.999999999999933</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L236" t="n">
         <v>6.245000000000002</v>
@@ -12315,7 +12337,7 @@
         <v>11.31</v>
       </c>
       <c r="K237" t="n">
-        <v>-16.66666666666666</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L237" t="n">
         <v>6.243000000000002</v>
@@ -12366,7 +12388,7 @@
         <v>11.43</v>
       </c>
       <c r="K238" t="n">
-        <v>14.89361702127656</v>
+        <v>28.57142857142884</v>
       </c>
       <c r="L238" t="n">
         <v>6.251000000000002</v>
@@ -12417,7 +12439,7 @@
         <v>11.5</v>
       </c>
       <c r="K239" t="n">
-        <v>5.882352941176542</v>
+        <v>12.50000000000007</v>
       </c>
       <c r="L239" t="n">
         <v>6.252000000000002</v>
@@ -12468,7 +12490,7 @@
         <v>11.57</v>
       </c>
       <c r="K240" t="n">
-        <v>19.29824561403504</v>
+        <v>28.20512820512815</v>
       </c>
       <c r="L240" t="n">
         <v>6.263000000000002</v>
@@ -12519,7 +12541,7 @@
         <v>11.57</v>
       </c>
       <c r="K241" t="n">
-        <v>25.92592592592591</v>
+        <v>31.57894736842093</v>
       </c>
       <c r="L241" t="n">
         <v>6.274000000000002</v>
@@ -12570,7 +12592,7 @@
         <v>11.62</v>
       </c>
       <c r="K242" t="n">
-        <v>32.20338983050855</v>
+        <v>46.34146341463423</v>
       </c>
       <c r="L242" t="n">
         <v>6.291000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>11.72000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>3.22580645161283</v>
+        <v>12.49999999999991</v>
       </c>
       <c r="L243" t="n">
         <v>6.300000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>11.73000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>3.225806451612982</v>
+        <v>4.347826086956614</v>
       </c>
       <c r="L244" t="n">
         <v>6.305000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>11.73000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>3.225806451612982</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L245" t="n">
         <v>6.307</v>
@@ -12774,7 +12796,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>-4.477611940298545</v>
+        <v>-2.040816326530742</v>
       </c>
       <c r="L246" t="n">
         <v>6.306</v>
@@ -12825,7 +12847,7 @@
         <v>11.81000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>-5.882352941176478</v>
+        <v>-36.84210526315756</v>
       </c>
       <c r="L247" t="n">
         <v>6.303999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>11.81000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>-9.09090909090903</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L248" t="n">
         <v>6.289999999999998</v>
@@ -12927,7 +12949,7 @@
         <v>11.85</v>
       </c>
       <c r="K249" t="n">
-        <v>-2.857142857142799</v>
+        <v>-35.71428571428545</v>
       </c>
       <c r="L249" t="n">
         <v>6.286999999999997</v>
@@ -12978,7 +13000,7 @@
         <v>11.88000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>5.714285714285711</v>
+        <v>-22.58064516128996</v>
       </c>
       <c r="L250" t="n">
         <v>6.279999999999998</v>
@@ -13029,7 +13051,7 @@
         <v>11.98000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>17.49999999999994</v>
+        <v>-5.555555555555665</v>
       </c>
       <c r="L251" t="n">
         <v>6.282999999999998</v>
@@ -13080,7 +13102,7 @@
         <v>11.99000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>19.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>6.281999999999997</v>
@@ -13131,7 +13153,7 @@
         <v>11.99000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>23.07692307692301</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L253" t="n">
         <v>6.290999999999997</v>
@@ -13182,7 +13204,7 @@
         <v>11.99000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>19.99999999999993</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L254" t="n">
         <v>6.300999999999997</v>
@@ -13233,7 +13255,7 @@
         <v>11.99000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>16.66666666666666</v>
+        <v>89.47368421052651</v>
       </c>
       <c r="L255" t="n">
         <v>6.310999999999996</v>
@@ -13284,7 +13306,7 @@
         <v>11.99000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>23.52941176470572</v>
+        <v>100</v>
       </c>
       <c r="L256" t="n">
         <v>6.327999999999996</v>
@@ -13335,7 +13357,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>21.73913043478249</v>
+        <v>89.47368421052651</v>
       </c>
       <c r="L257" t="n">
         <v>6.344999999999995</v>
@@ -13386,7 +13408,7 @@
         <v>12.01000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>6.896551724137916</v>
+        <v>87.49999999999972</v>
       </c>
       <c r="L258" t="n">
         <v>6.362999999999994</v>
@@ -13437,7 +13459,7 @@
         <v>12.01000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>21.56862745098022</v>
+        <v>84.61538461538483</v>
       </c>
       <c r="L259" t="n">
         <v>6.376999999999994</v>
@@ -13488,7 +13510,7 @@
         <v>12.02</v>
       </c>
       <c r="K260" t="n">
-        <v>6.666666666666707</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>6.386999999999993</v>
@@ -13539,7 +13561,7 @@
         <v>12.09000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.692307692307679</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L261" t="n">
         <v>6.379999999999994</v>
@@ -13590,7 +13612,7 @@
         <v>12.16000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-3.703703703703783</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L262" t="n">
         <v>6.378999999999993</v>
@@ -13641,7 +13663,7 @@
         <v>12.16000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>18.18181818181822</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L263" t="n">
         <v>6.377999999999993</v>
@@ -13692,7 +13714,7 @@
         <v>12.16000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>20.93023255813952</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L264" t="n">
         <v>6.376999999999993</v>
@@ -13743,7 +13765,7 @@
         <v>12.23000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>3.999999999999915</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>6.368999999999993</v>
@@ -13794,7 +13816,7 @@
         <v>12.24000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>18.18181818181822</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>6.359999999999992</v>
@@ -13845,7 +13867,7 @@
         <v>12.31000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>32.00000000000003</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L267" t="n">
         <v>6.358999999999993</v>
@@ -13896,7 +13918,7 @@
         <v>12.31000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>32.00000000000003</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L268" t="n">
         <v>6.356999999999992</v>
@@ -13947,7 +13969,7 @@
         <v>12.44</v>
       </c>
       <c r="K269" t="n">
-        <v>-1.694915254237252</v>
+        <v>-33.33333333333326</v>
       </c>
       <c r="L269" t="n">
         <v>6.341999999999992</v>
@@ -13998,7 +14020,7 @@
         <v>12.53</v>
       </c>
       <c r="K270" t="n">
-        <v>7.692307692307682</v>
+        <v>4.545454545454655</v>
       </c>
       <c r="L270" t="n">
         <v>6.336999999999991</v>
@@ -14049,7 +14071,7 @@
         <v>12.53</v>
       </c>
       <c r="K271" t="n">
-        <v>-9.090909090909076</v>
+        <v>-13.51351351351349</v>
       </c>
       <c r="L271" t="n">
         <v>6.338999999999992</v>
@@ -14100,7 +14122,7 @@
         <v>12.57</v>
       </c>
       <c r="K272" t="n">
-        <v>-3.448275862068902</v>
+        <v>-2.43902439024386</v>
       </c>
       <c r="L272" t="n">
         <v>6.337999999999992</v>
@@ -14151,7 +14173,7 @@
         <v>12.65</v>
       </c>
       <c r="K273" t="n">
-        <v>-15.15151515151513</v>
+        <v>-18.36734693877554</v>
       </c>
       <c r="L273" t="n">
         <v>6.328999999999992</v>
@@ -14202,7 +14224,7 @@
         <v>12.73</v>
       </c>
       <c r="K274" t="n">
-        <v>-2.702702702702651</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L274" t="n">
         <v>6.327999999999991</v>
@@ -14253,7 +14275,7 @@
         <v>12.73</v>
       </c>
       <c r="K275" t="n">
-        <v>-2.702702702702651</v>
+        <v>14.28571428571439</v>
       </c>
       <c r="L275" t="n">
         <v>6.333999999999991</v>
@@ -14304,7 +14326,7 @@
         <v>12.73</v>
       </c>
       <c r="K276" t="n">
-        <v>-2.702702702702651</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>6.340999999999991</v>
@@ -14355,7 +14377,7 @@
         <v>12.73</v>
       </c>
       <c r="K277" t="n">
-        <v>-1.369863013698603</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>6.340999999999992</v>
@@ -14406,7 +14428,7 @@
         <v>12.8</v>
       </c>
       <c r="K278" t="n">
-        <v>-11.39240506329113</v>
+        <v>16.66666666666659</v>
       </c>
       <c r="L278" t="n">
         <v>6.333999999999993</v>
@@ -14457,7 +14479,7 @@
         <v>12.8</v>
       </c>
       <c r="K279" t="n">
-        <v>-11.39240506329113</v>
+        <v>-11.11111111111122</v>
       </c>
       <c r="L279" t="n">
         <v>6.339999999999993</v>
@@ -14508,7 +14530,7 @@
         <v>12.81</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.39240506329113</v>
+        <v>-14.28571428571433</v>
       </c>
       <c r="L280" t="n">
         <v>6.335999999999993</v>
@@ -14559,7 +14581,7 @@
         <v>12.83000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-5.405405405405409</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L281" t="n">
         <v>6.329999999999993</v>
@@ -14610,7 +14632,7 @@
         <v>12.84000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>-17.64705882352943</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L282" t="n">
         <v>6.318999999999994</v>
@@ -14661,7 +14683,7 @@
         <v>12.85</v>
       </c>
       <c r="K283" t="n">
-        <v>-18.84057971014493</v>
+        <v>-99.99999999999926</v>
       </c>
       <c r="L283" t="n">
         <v>6.314999999999994</v>
@@ -14712,7 +14734,7 @@
         <v>12.95</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.797468354430415</v>
+        <v>-9.090909090909275</v>
       </c>
       <c r="L284" t="n">
         <v>6.312999999999994</v>
@@ -14763,7 +14785,7 @@
         <v>12.97</v>
       </c>
       <c r="K285" t="n">
-        <v>2.702702702702771</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L285" t="n">
         <v>6.308999999999996</v>
@@ -14814,7 +14836,7 @@
         <v>12.97</v>
       </c>
       <c r="K286" t="n">
-        <v>4.109589041095932</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L286" t="n">
         <v>6.304999999999996</v>
@@ -14865,7 +14887,7 @@
         <v>12.97</v>
       </c>
       <c r="K287" t="n">
-        <v>-6.060606060606081</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L287" t="n">
         <v>6.300999999999997</v>
@@ -14916,7 +14938,7 @@
         <v>13.06</v>
       </c>
       <c r="K288" t="n">
-        <v>-17.33333333333336</v>
+        <v>-23.07692307692295</v>
       </c>
       <c r="L288" t="n">
         <v>6.294999999999997</v>
@@ -14967,7 +14989,7 @@
         <v>13.14</v>
       </c>
       <c r="K289" t="n">
-        <v>11.42857142857145</v>
+        <v>9.090909090909165</v>
       </c>
       <c r="L289" t="n">
         <v>6.296999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>13.14</v>
       </c>
       <c r="K290" t="n">
-        <v>-1.639344262295048</v>
+        <v>16.12903225806481</v>
       </c>
       <c r="L290" t="n">
         <v>6.299999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>13.14</v>
       </c>
       <c r="K291" t="n">
-        <v>-1.639344262295048</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L291" t="n">
         <v>6.305</v>
@@ -15120,7 +15142,7 @@
         <v>13.16</v>
       </c>
       <c r="K292" t="n">
-        <v>-11.86440677966107</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L292" t="n">
         <v>6.308999999999999</v>
@@ -15171,7 +15193,7 @@
         <v>13.16</v>
       </c>
       <c r="K293" t="n">
-        <v>1.960784313725449</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L293" t="n">
         <v>6.314</v>
@@ -15222,7 +15244,7 @@
         <v>13.16</v>
       </c>
       <c r="K294" t="n">
-        <v>-16.27906976744194</v>
+        <v>-15.7894736842107</v>
       </c>
       <c r="L294" t="n">
         <v>6.308999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>13.18</v>
       </c>
       <c r="K295" t="n">
-        <v>-20</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L295" t="n">
         <v>6.303999999999999</v>
@@ -15324,7 +15346,7 @@
         <v>13.21</v>
       </c>
       <c r="K296" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>6.295999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>13.21</v>
       </c>
       <c r="K297" t="n">
-        <v>-25</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L297" t="n">
         <v>6.287999999999999</v>
@@ -15426,7 +15448,7 @@
         <v>13.26000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>-16.66666666666691</v>
       </c>
       <c r="L298" t="n">
         <v>6.293999999999999</v>
@@ -15477,7 +15499,7 @@
         <v>13.26000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>-16.66666666666691</v>
       </c>
       <c r="L299" t="n">
         <v>6.292</v>
@@ -15528,7 +15550,7 @@
         <v>13.32</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.80392156862742</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L300" t="n">
         <v>6.284</v>
@@ -15579,7 +15601,7 @@
         <v>13.34</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.803921568627455</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L301" t="n">
         <v>6.274</v>
@@ -15630,7 +15652,7 @@
         <v>13.34</v>
       </c>
       <c r="K302" t="n">
-        <v>-8.000000000000036</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L302" t="n">
         <v>6.266000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>13.48</v>
       </c>
       <c r="K304" t="n">
-        <v>-1.886792452830157</v>
+        <v>19.99999999999994</v>
       </c>
       <c r="L304" t="n">
         <v>6.275000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>13.49</v>
       </c>
       <c r="K305" t="n">
-        <v>3.846153846153781</v>
+        <v>35.7142857142859</v>
       </c>
       <c r="L305" t="n">
         <v>6.282000000000001</v>
@@ -15834,7 +15856,7 @@
         <v>13.49</v>
       </c>
       <c r="K306" t="n">
-        <v>3.846153846153781</v>
+        <v>35.7142857142859</v>
       </c>
       <c r="L306" t="n">
         <v>6.292</v>
@@ -15885,7 +15907,7 @@
         <v>13.59</v>
       </c>
       <c r="K307" t="n">
-        <v>-12.90322580645168</v>
+        <v>-15.15151515151526</v>
       </c>
       <c r="L307" t="n">
         <v>6.292</v>
@@ -15936,7 +15958,7 @@
         <v>13.6</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-17.64705882352949</v>
       </c>
       <c r="L308" t="n">
         <v>6.286</v>
@@ -15987,7 +16009,7 @@
         <v>13.68</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>22.22222222222239</v>
       </c>
       <c r="L309" t="n">
         <v>6.288000000000001</v>
@@ -16038,7 +16060,7 @@
         <v>13.75</v>
       </c>
       <c r="K310" t="n">
-        <v>-11.47540983606566</v>
+        <v>7.317073170731797</v>
       </c>
       <c r="L310" t="n">
         <v>6.289000000000001</v>
@@ -16089,7 +16111,7 @@
         <v>13.76</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.90322580645168</v>
+        <v>4.761904761904892</v>
       </c>
       <c r="L311" t="n">
         <v>6.291000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>13.77</v>
       </c>
       <c r="K312" t="n">
-        <v>-11.47540983606552</v>
+        <v>-39.99999999999988</v>
       </c>
       <c r="L312" t="n">
         <v>6.292000000000002</v>
@@ -16191,7 +16213,7 @@
         <v>13.77</v>
       </c>
       <c r="K313" t="n">
-        <v>-11.47540983606552</v>
+        <v>-37.93103448275853</v>
       </c>
       <c r="L313" t="n">
         <v>6.280000000000002</v>
@@ -16242,7 +16264,7 @@
         <v>13.78</v>
       </c>
       <c r="K314" t="n">
-        <v>-12.90322580645168</v>
+        <v>-44.82758620689665</v>
       </c>
       <c r="L314" t="n">
         <v>6.268000000000002</v>
@@ -16293,7 +16315,7 @@
         <v>13.79</v>
       </c>
       <c r="K315" t="n">
-        <v>-11.47540983606566</v>
+        <v>-46.66666666666673</v>
       </c>
       <c r="L315" t="n">
         <v>6.254000000000001</v>
@@ -16344,7 +16366,7 @@
         <v>13.81</v>
       </c>
       <c r="K316" t="n">
-        <v>-3.333333333333274</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L316" t="n">
         <v>6.242000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>13.83</v>
       </c>
       <c r="K317" t="n">
-        <v>-6.451612903225838</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L317" t="n">
         <v>6.238000000000001</v>
@@ -16446,7 +16468,7 @@
         <v>13.83</v>
       </c>
       <c r="K318" t="n">
-        <v>-15.78947368421059</v>
+        <v>-73.33333333333337</v>
       </c>
       <c r="L318" t="n">
         <v>6.235</v>
@@ -16497,7 +16519,7 @@
         <v>13.85</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.86440677966099</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L319" t="n">
         <v>6.226</v>
@@ -16548,7 +16570,7 @@
         <v>13.85</v>
       </c>
       <c r="K320" t="n">
-        <v>-1.886792452830157</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L320" t="n">
         <v>6.223999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>13.96</v>
       </c>
       <c r="K321" t="n">
-        <v>19.35483870967752</v>
+        <v>57.89473684210511</v>
       </c>
       <c r="L321" t="n">
         <v>6.234</v>
@@ -16650,7 +16672,7 @@
         <v>14.06</v>
       </c>
       <c r="K322" t="n">
-        <v>2.777777777777853</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L322" t="n">
         <v>6.234999999999999</v>
@@ -16701,7 +16723,7 @@
         <v>14.1</v>
       </c>
       <c r="K323" t="n">
-        <v>-11.11111111111103</v>
+        <v>18.75000000000014</v>
       </c>
       <c r="L323" t="n">
         <v>6.239999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>14.13</v>
       </c>
       <c r="K324" t="n">
-        <v>-4.615384615384664</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L324" t="n">
         <v>6.249</v>
@@ -16803,7 +16825,7 @@
         <v>14.22</v>
       </c>
       <c r="K325" t="n">
-        <v>6.849315068493245</v>
+        <v>41.46341463414631</v>
       </c>
       <c r="L325" t="n">
         <v>6.268</v>
@@ -16854,7 +16876,7 @@
         <v>14.44</v>
       </c>
       <c r="K326" t="n">
-        <v>28.42105263157902</v>
+        <v>67.21311475409844</v>
       </c>
       <c r="L326" t="n">
         <v>6.306999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>14.46</v>
       </c>
       <c r="K327" t="n">
-        <v>44.82758620689656</v>
+        <v>68.25396825396831</v>
       </c>
       <c r="L327" t="n">
         <v>6.35</v>
@@ -16956,7 +16978,7 @@
         <v>14.47</v>
       </c>
       <c r="K328" t="n">
-        <v>47.12643678160916</v>
+        <v>67.74193548387085</v>
       </c>
       <c r="L328" t="n">
         <v>6.393999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>14.47</v>
       </c>
       <c r="K329" t="n">
-        <v>41.77215189873414</v>
+        <v>67.74193548387085</v>
       </c>
       <c r="L329" t="n">
         <v>6.435999999999998</v>
@@ -17058,7 +17080,7 @@
         <v>14.48</v>
       </c>
       <c r="K330" t="n">
-        <v>53.42465753424636</v>
+        <v>57.69230769230731</v>
       </c>
       <c r="L330" t="n">
         <v>6.476999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>14.54</v>
       </c>
       <c r="K331" t="n">
-        <v>58.97435897435875</v>
+        <v>95.83333333333253</v>
       </c>
       <c r="L331" t="n">
         <v>6.512999999999998</v>
@@ -17160,7 +17182,7 @@
         <v>14.63</v>
       </c>
       <c r="K332" t="n">
-        <v>65.11627906976717</v>
+        <v>96.22641509433906</v>
       </c>
       <c r="L332" t="n">
         <v>6.568</v>
@@ -17211,7 +17233,7 @@
         <v>14.73</v>
       </c>
       <c r="K333" t="n">
-        <v>68.74999999999973</v>
+        <v>96.66666666666617</v>
       </c>
       <c r="L333" t="n">
         <v>6.629</v>
@@ -17262,7 +17284,7 @@
         <v>14.83000000000001</v>
       </c>
       <c r="K334" t="n">
-        <v>73.33333333333309</v>
+        <v>96.72131147540935</v>
       </c>
       <c r="L334" t="n">
         <v>6.696999999999998</v>
@@ -17313,7 +17335,7 @@
         <v>14.97000000000001</v>
       </c>
       <c r="K335" t="n">
-        <v>77.96610169491491</v>
+        <v>96.22641509433873</v>
       </c>
       <c r="L335" t="n">
         <v>6.769999999999998</v>
@@ -17364,7 +17386,7 @@
         <v>14.98000000000001</v>
       </c>
       <c r="K336" t="n">
-        <v>76.06837606837581</v>
+        <v>92.30769230769153</v>
       </c>
       <c r="L336" t="n">
         <v>6.819999999999998</v>
@@ -17415,7 +17437,7 @@
         <v>15.09000000000001</v>
       </c>
       <c r="K337" t="n">
-        <v>80.95238095238066</v>
+        <v>93.54838709677352</v>
       </c>
       <c r="L337" t="n">
         <v>6.878999999999998</v>
@@ -17466,7 +17488,7 @@
         <v>15.18000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>82.22222222222194</v>
+        <v>94.366197183098</v>
       </c>
       <c r="L338" t="n">
         <v>6.945999999999998</v>
@@ -17517,7 +17539,7 @@
         <v>15.19000000000001</v>
       </c>
       <c r="K339" t="n">
-        <v>80.59701492537266</v>
+        <v>94.366197183098</v>
       </c>
       <c r="L339" t="n">
         <v>7.011999999999998</v>
@@ -17568,7 +17590,7 @@
         <v>15.24000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>81.29496402877652</v>
+        <v>94.28571428571368</v>
       </c>
       <c r="L340" t="n">
         <v>7.083999999999998</v>
@@ -17619,7 +17641,7 @@
         <v>15.24000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>79.68749999999952</v>
+        <v>93.44262295081899</v>
       </c>
       <c r="L341" t="n">
         <v>7.149999999999997</v>
@@ -17670,7 +17692,7 @@
         <v>15.25000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>94.95798319327663</v>
+        <v>92.30769230769153</v>
       </c>
       <c r="L342" t="n">
         <v>7.207999999999997</v>
@@ -17721,7 +17743,7 @@
         <v>15.33000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>95.1219512195116</v>
+        <v>91.99999999999933</v>
       </c>
       <c r="L343" t="n">
         <v>7.263999999999998</v>
@@ -17772,7 +17794,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>84.25196850393647</v>
+        <v>58.13953488372049</v>
       </c>
       <c r="L344" t="n">
         <v>7.302999999999997</v>
@@ -17823,7 +17845,7 @@
         <v>15.44000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>83.60655737704874</v>
+        <v>65.21739130434742</v>
       </c>
       <c r="L345" t="n">
         <v>7.331999999999998</v>
@@ -17874,7 +17896,7 @@
         <v>15.52000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>66.6666666666662</v>
+        <v>25.58139534883699</v>
       </c>
       <c r="L346" t="n">
         <v>7.353999999999997</v>
@@ -17925,7 +17947,7 @@
         <v>15.53000000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>64.48598130841081</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L347" t="n">
         <v>7.363999999999997</v>
@@ -17976,7 +17998,7 @@
         <v>15.53000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>64.15094339622604</v>
+        <v>5.882352941176609</v>
       </c>
       <c r="L348" t="n">
         <v>7.364999999999998</v>
@@ -18027,7 +18049,7 @@
         <v>15.61000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>66.6666666666663</v>
+        <v>13.51351351351349</v>
       </c>
       <c r="L349" t="n">
         <v>7.374999999999997</v>
@@ -18078,7 +18100,7 @@
         <v>15.78000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>46.15384615384605</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L350" t="n">
         <v>7.362999999999997</v>
@@ -18129,7 +18151,7 @@
         <v>15.83000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>45.73643410852696</v>
+        <v>-13.79310344827587</v>
       </c>
       <c r="L351" t="n">
         <v>7.355999999999997</v>
@@ -18180,7 +18202,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>44.88188976377938</v>
+        <v>-15.78947368421049</v>
       </c>
       <c r="L352" t="n">
         <v>7.354999999999997</v>
@@ -18231,7 +18253,7 @@
         <v>15.92000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>37.81512605042003</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L353" t="n">
         <v>7.343999999999997</v>
@@ -18282,7 +18304,7 @@
         <v>16.02000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>21.00840336134445</v>
+        <v>-31.03448275862054</v>
       </c>
       <c r="L354" t="n">
         <v>7.329999999999997</v>
@@ -18333,7 +18355,7 @@
         <v>16.02000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>10.47619047619046</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L355" t="n">
         <v>7.311999999999996</v>
@@ -18384,7 +18406,7 @@
         <v>16.09000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>17.117117117117</v>
+        <v>-3.571428571428639</v>
       </c>
       <c r="L356" t="n">
         <v>7.308999999999996</v>
@@ -18435,7 +18457,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>-2.702702702702718</v>
+        <v>-19.4029850746268</v>
       </c>
       <c r="L357" t="n">
         <v>7.295999999999997</v>
@@ -18486,7 +18508,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>-36.61971830985915</v>
+        <v>-61.61616161616163</v>
       </c>
       <c r="L358" t="n">
         <v>7.242999999999997</v>
@@ -18537,7 +18559,7 @@
         <v>16.65000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>-31.50684931506848</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L359" t="n">
         <v>7.186999999999996</v>
@@ -18588,7 +18610,7 @@
         <v>16.66000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>-36.61971830985915</v>
+        <v>-54.21686746987942</v>
       </c>
       <c r="L360" t="n">
         <v>7.146999999999997</v>
@@ -18639,7 +18661,7 @@
         <v>16.66000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>-36.61971830985915</v>
+        <v>-68.42105263157887</v>
       </c>
       <c r="L361" t="n">
         <v>7.101999999999997</v>
@@ -18690,7 +18712,7 @@
         <v>16.69000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>-38.88888888888884</v>
+        <v>-68.83116883116858</v>
       </c>
       <c r="L362" t="n">
         <v>7.046999999999997</v>
@@ -18741,7 +18763,7 @@
         <v>16.70000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>-47.44525547445254</v>
+        <v>-64.70588235294126</v>
       </c>
       <c r="L363" t="n">
         <v>6.992999999999997</v>
@@ -18792,7 +18814,7 @@
         <v>16.75000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>-39.25925925925924</v>
+        <v>-53.42465753424662</v>
       </c>
       <c r="L364" t="n">
         <v>6.953999999999996</v>
@@ -18843,7 +18865,7 @@
         <v>16.79000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>-45.18518518518516</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L365" t="n">
         <v>6.910999999999997</v>
@@ -18894,7 +18916,7 @@
         <v>16.82000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>-38.46153846153839</v>
+        <v>-58.06451612903222</v>
       </c>
       <c r="L366" t="n">
         <v>6.863999999999997</v>
@@ -18945,7 +18967,7 @@
         <v>16.83000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>-36.92307692307683</v>
+        <v>21.73913043478215</v>
       </c>
       <c r="L367" t="n">
         <v>6.828999999999996</v>
@@ -18996,7 +19018,7 @@
         <v>16.83000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>-36.92307692307683</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>6.833999999999996</v>
@@ -19047,7 +19069,7 @@
         <v>16.89000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>-39.0624999999998</v>
+        <v>30.43478260869525</v>
       </c>
       <c r="L369" t="n">
         <v>6.839999999999996</v>
@@ -19098,7 +19120,7 @@
         <v>16.98000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>-19.99999999999991</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L370" t="n">
         <v>6.855999999999996</v>
@@ -19149,7 +19171,7 @@
         <v>17.14000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>-34.3511450381678</v>
+        <v>6.66666666666668</v>
       </c>
       <c r="L371" t="n">
         <v>6.855999999999996</v>
@@ -19200,7 +19222,7 @@
         <v>17.18000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>-37.49999999999989</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L372" t="n">
         <v>6.862999999999995</v>
@@ -19251,7 +19273,7 @@
         <v>17.36000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>-19.4444444444444</v>
+        <v>34.42622950819655</v>
       </c>
       <c r="L373" t="n">
         <v>6.888999999999996</v>
@@ -19302,7 +19324,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>-10.14492753623191</v>
+        <v>47.54098360655716</v>
       </c>
       <c r="L374" t="n">
         <v>6.913999999999996</v>
@@ -19353,7 +19375,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>-10.14492753623191</v>
+        <v>44.82758620689638</v>
       </c>
       <c r="L375" t="n">
         <v>6.942999999999995</v>
@@ -19404,7 +19426,7 @@
         <v>17.44000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>-18.5185185185185</v>
+        <v>34.42622950819675</v>
       </c>
       <c r="L376" t="n">
         <v>6.964999999999995</v>
@@ -19455,7 +19477,7 @@
         <v>17.61000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>-21.98581560283686</v>
+        <v>5.128205128205125</v>
       </c>
       <c r="L377" t="n">
         <v>6.968999999999996</v>
@@ -19506,7 +19528,7 @@
         <v>17.62000000000001</v>
       </c>
       <c r="K378" t="n">
-        <v>7.843137254901944</v>
+        <v>-4.109589041095942</v>
       </c>
       <c r="L378" t="n">
         <v>6.971999999999996</v>
@@ -19557,7 +19579,7 @@
         <v>17.69000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>-3.84615384615384</v>
+        <v>-26.76056338028185</v>
       </c>
       <c r="L379" t="n">
         <v>6.961999999999996</v>
@@ -19608,7 +19630,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K380" t="n">
-        <v>-1.923076923076877</v>
+        <v>-3.571428571428503</v>
       </c>
       <c r="L380" t="n">
         <v>6.943999999999997</v>
@@ -19659,7 +19681,7 @@
         <v>17.72000000000001</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-7.407407407407425</v>
       </c>
       <c r="L381" t="n">
         <v>6.943999999999997</v>
@@ -19710,7 +19732,7 @@
         <v>17.76000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>-0.9345794392523162</v>
+        <v>-65.00000000000018</v>
       </c>
       <c r="L382" t="n">
         <v>6.935999999999997</v>
@@ -19761,7 +19783,7 @@
         <v>17.77000000000001</v>
       </c>
       <c r="K383" t="n">
-        <v>0.9345794392523162</v>
+        <v>-78.37837837837893</v>
       </c>
       <c r="L383" t="n">
         <v>6.910999999999997</v>
@@ -19812,7 +19834,7 @@
         <v>17.77000000000001</v>
       </c>
       <c r="K384" t="n">
-        <v>-3.921568627450985</v>
+        <v>-78.37837837837893</v>
       </c>
       <c r="L384" t="n">
         <v>6.881999999999998</v>
@@ -19863,7 +19885,7 @@
         <v>17.77000000000001</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>-75.75757575757615</v>
       </c>
       <c r="L385" t="n">
         <v>6.852999999999999</v>
@@ -19914,7 +19936,7 @@
         <v>17.85000000000001</v>
       </c>
       <c r="K386" t="n">
-        <v>4.854368932038829</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>6.835999999999999</v>
@@ -19965,7 +19987,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K387" t="n">
-        <v>16.23931623931635</v>
+        <v>42.10526315789528</v>
       </c>
       <c r="L387" t="n">
         <v>6.850999999999999</v>
@@ -20016,7 +20038,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K388" t="n">
-        <v>16.23931623931635</v>
+        <v>74.19354838709806</v>
       </c>
       <c r="L388" t="n">
         <v>6.867</v>
@@ -20067,7 +20089,7 @@
         <v>18.13000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>20.93023255813986</v>
       </c>
       <c r="L389" t="n">
         <v>6.877</v>
@@ -20118,7 +20140,7 @@
         <v>18.24000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>-15.873015873016</v>
+        <v>-7.692307692307811</v>
       </c>
       <c r="L390" t="n">
         <v>6.875</v>
@@ -20169,7 +20191,7 @@
         <v>18.25000000000001</v>
       </c>
       <c r="K391" t="n">
-        <v>-2.702702702702744</v>
+        <v>2.04081632653059</v>
       </c>
       <c r="L391" t="n">
         <v>6.872</v>
@@ -20220,7 +20242,7 @@
         <v>18.26000000000001</v>
       </c>
       <c r="K392" t="n">
-        <v>-7.407407407407475</v>
+        <v>-2.04081632653059</v>
       </c>
       <c r="L392" t="n">
         <v>6.872</v>
@@ -20271,7 +20293,7 @@
         <v>18.27</v>
       </c>
       <c r="K393" t="n">
-        <v>-27.47252747252779</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>6.872</v>
@@ -20322,7 +20344,7 @@
         <v>18.36</v>
       </c>
       <c r="K394" t="n">
-        <v>-20.83333333333347</v>
+        <v>15.25423728813591</v>
       </c>
       <c r="L394" t="n">
         <v>6.881</v>
@@ -20373,7 +20395,7 @@
         <v>18.41</v>
       </c>
       <c r="K395" t="n">
-        <v>-24.75247524752497</v>
+        <v>-7.142857142857211</v>
       </c>
       <c r="L395" t="n">
         <v>6.885</v>
@@ -20424,7 +20446,7 @@
         <v>18.42000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>-20.40816326530619</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L396" t="n">
         <v>6.882</v>
@@ -20475,7 +20497,7 @@
         <v>18.55</v>
       </c>
       <c r="K397" t="n">
-        <v>10.63829787234059</v>
+        <v>-9.090909090909104</v>
       </c>
       <c r="L397" t="n">
         <v>6.876999999999998</v>
@@ -20526,7 +20548,7 @@
         <v>18.55</v>
       </c>
       <c r="K398" t="n">
-        <v>11.82795698924744</v>
+        <v>19.04761904761915</v>
       </c>
       <c r="L398" t="n">
         <v>6.871999999999997</v>
@@ -20577,7 +20599,7 @@
         <v>18.55</v>
       </c>
       <c r="K399" t="n">
-        <v>20.93023255813979</v>
+        <v>61.29032258064554</v>
       </c>
       <c r="L399" t="n">
         <v>6.879999999999997</v>
@@ -20628,7 +20650,7 @@
         <v>18.55</v>
       </c>
       <c r="K400" t="n">
-        <v>20.00000000000021</v>
+        <v>60.00000000000077</v>
       </c>
       <c r="L400" t="n">
         <v>6.898999999999996</v>
@@ -20679,7 +20701,7 @@
         <v>18.64</v>
       </c>
       <c r="K401" t="n">
-        <v>6.5217391304349</v>
+        <v>26.31578947368442</v>
       </c>
       <c r="L401" t="n">
         <v>6.907999999999997</v>
@@ -20730,7 +20752,7 @@
         <v>18.68</v>
       </c>
       <c r="K402" t="n">
-        <v>15.21739130434804</v>
+        <v>31.70731707317091</v>
       </c>
       <c r="L402" t="n">
         <v>6.921999999999997</v>
@@ -20781,7 +20803,7 @@
         <v>18.68</v>
       </c>
       <c r="K403" t="n">
-        <v>14.28571428571448</v>
+        <v>12.5</v>
       </c>
       <c r="L403" t="n">
         <v>6.934999999999997</v>
@@ -20832,7 +20854,7 @@
         <v>18.68</v>
       </c>
       <c r="K404" t="n">
-        <v>14.28571428571448</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L404" t="n">
         <v>6.938999999999996</v>
@@ -20883,7 +20905,7 @@
         <v>18.68</v>
       </c>
       <c r="K405" t="n">
-        <v>14.28571428571448</v>
+        <v>30.76923076923103</v>
       </c>
       <c r="L405" t="n">
         <v>6.947999999999996</v>
@@ -20934,7 +20956,7 @@
         <v>18.73</v>
       </c>
       <c r="K406" t="n">
-        <v>11.36363636363648</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>6.960999999999996</v>
@@ -20985,7 +21007,7 @@
         <v>18.74</v>
       </c>
       <c r="K407" t="n">
-        <v>-5.405405405405447</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L407" t="n">
         <v>6.961999999999996</v>
@@ -21036,7 +21058,7 @@
         <v>19</v>
       </c>
       <c r="K408" t="n">
-        <v>22.00000000000013</v>
+        <v>60.00000000000048</v>
       </c>
       <c r="L408" t="n">
         <v>6.988999999999997</v>
@@ -21087,7 +21109,7 @@
         <v>19.13</v>
       </c>
       <c r="K409" t="n">
-        <v>48.00000000000029</v>
+        <v>68.96551724137984</v>
       </c>
       <c r="L409" t="n">
         <v>7.028999999999998</v>
@@ -21138,7 +21160,7 @@
         <v>19.13</v>
       </c>
       <c r="K410" t="n">
-        <v>66.29213483146114</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L410" t="n">
         <v>7.068999999999998</v>
@@ -21189,7 +21211,7 @@
         <v>19.14</v>
       </c>
       <c r="K411" t="n">
-        <v>66.29213483146124</v>
+        <v>100.0000000000006</v>
       </c>
       <c r="L411" t="n">
         <v>7.118999999999998</v>
@@ -21240,7 +21262,7 @@
         <v>19.19</v>
       </c>
       <c r="K412" t="n">
-        <v>69.8924731182799</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L412" t="n">
         <v>7.169999999999999</v>
@@ -21291,7 +21313,7 @@
         <v>19.19</v>
       </c>
       <c r="K413" t="n">
-        <v>69.56521739130454</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L413" t="n">
         <v>7.220999999999999</v>
@@ -21342,7 +21364,7 @@
         <v>19.19</v>
       </c>
       <c r="K414" t="n">
-        <v>66.26506024096398</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L414" t="n">
         <v>7.272</v>
@@ -21393,7 +21415,7 @@
         <v>19.33</v>
       </c>
       <c r="K415" t="n">
-        <v>50.0000000000001</v>
+        <v>53.33333333333342</v>
       </c>
       <c r="L415" t="n">
         <v>7.309</v>
@@ -21444,7 +21466,7 @@
         <v>19.64</v>
       </c>
       <c r="K416" t="n">
-        <v>11.47540983606559</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>7.31</v>
@@ -21495,7 +21517,7 @@
         <v>19.77</v>
       </c>
       <c r="K417" t="n">
-        <v>11.47540983606559</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L417" t="n">
         <v>7.323</v>
@@ -21546,7 +21568,7 @@
         <v>19.8</v>
       </c>
       <c r="K418" t="n">
-        <v>13.60000000000003</v>
+        <v>-34.32835820895507</v>
       </c>
       <c r="L418" t="n">
         <v>7.313</v>
@@ -21597,7 +21619,7 @@
         <v>19.9</v>
       </c>
       <c r="K419" t="n">
-        <v>20.00000000000005</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L419" t="n">
         <v>7.3</v>
@@ -21648,7 +21670,7 @@
         <v>20</v>
       </c>
       <c r="K420" t="n">
-        <v>11.72413793103451</v>
+        <v>-27.90697674418609</v>
       </c>
       <c r="L420" t="n">
         <v>7.276999999999999</v>
@@ -21699,7 +21721,7 @@
         <v>20</v>
       </c>
       <c r="K421" t="n">
-        <v>19.11764705882357</v>
+        <v>-35.80246913580253</v>
       </c>
       <c r="L421" t="n">
         <v>7.252999999999998</v>
@@ -21750,7 +21772,7 @@
         <v>20.29</v>
       </c>
       <c r="K422" t="n">
-        <v>-4.347826086956551</v>
+        <v>-52.72727272727283</v>
       </c>
       <c r="L422" t="n">
         <v>7.194999999999999</v>
@@ -21801,7 +21823,7 @@
         <v>20.32</v>
       </c>
       <c r="K423" t="n">
-        <v>-2.439024390243909</v>
+        <v>-48.67256637168144</v>
       </c>
       <c r="L423" t="n">
         <v>7.139999999999999</v>
@@ -21852,7 +21874,7 @@
         <v>20.41</v>
       </c>
       <c r="K424" t="n">
-        <v>-7.514450867052082</v>
+        <v>-46.29629629629637</v>
       </c>
       <c r="L424" t="n">
         <v>7.075999999999999</v>
@@ -21903,7 +21925,7 @@
         <v>20.46</v>
       </c>
       <c r="K425" t="n">
-        <v>-4.49438202247192</v>
+        <v>-17.07317073170727</v>
       </c>
       <c r="L425" t="n">
         <v>7.030999999999999</v>
@@ -21954,7 +21976,7 @@
         <v>20.67</v>
       </c>
       <c r="K426" t="n">
-        <v>-17.5257731958763</v>
+        <v>-53.33333333333316</v>
       </c>
       <c r="L426" t="n">
         <v>6.996</v>
@@ -22005,7 +22027,7 @@
         <v>20.69</v>
       </c>
       <c r="K427" t="n">
-        <v>-16.92307692307693</v>
+        <v>-55.05617977528089</v>
       </c>
       <c r="L427" t="n">
         <v>6.95</v>
@@ -22056,7 +22078,7 @@
         <v>20.76</v>
       </c>
       <c r="K428" t="n">
-        <v>-37.49999999999997</v>
+        <v>-76.74418604651137</v>
       </c>
       <c r="L428" t="n">
         <v>6.894</v>
@@ -22107,7 +22129,7 @@
         <v>20.85</v>
       </c>
       <c r="K429" t="n">
-        <v>-51.16279069767435</v>
+        <v>-76.47058823529403</v>
       </c>
       <c r="L429" t="n">
         <v>6.819</v>
@@ -22158,7 +22180,7 @@
         <v>20.87</v>
       </c>
       <c r="K430" t="n">
-        <v>-49.42528735632175</v>
+        <v>-72.41379310344817</v>
       </c>
       <c r="L430" t="n">
         <v>6.756</v>

--- a/BackTest/2019-11-15 BackTest FAB.xlsx
+++ b/BackTest/2019-11-15 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2456261.302549265</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2295216.107717323</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.12</v>
@@ -521,7 +521,7 @@
         <v>-2135478.699065028</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.24</v>
@@ -562,9 +562,11 @@
         <v>-2357527.297437828</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.27</v>
+      </c>
       <c r="J5" t="n">
         <v>6.12</v>
       </c>
@@ -601,10 +603,14 @@
         <v>-1879356.525195313</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.16</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -637,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -670,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -13933,7 +13951,7 @@
         <v>13293761.01948295</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13966,7 +13984,7 @@
         <v>13304500.88188295</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13999,7 +14017,7 @@
         <v>13297705.88038295</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14032,7 +14050,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14065,7 +14083,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14098,7 +14116,7 @@
         <v>13523122.25258295</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14131,7 +14149,7 @@
         <v>13421751.39458295</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14164,7 +14182,7 @@
         <v>11987294.30948295</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14197,7 +14215,7 @@
         <v>12311637.30278295</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14230,7 +14248,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14263,7 +14281,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14296,7 +14314,7 @@
         <v>12211645.69828295</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14329,7 +14347,7 @@
         <v>12186272.36438295</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14362,7 +14380,7 @@
         <v>12471450.96488295</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14395,7 +14413,7 @@
         <v>12467129.45018295</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14428,7 +14446,7 @@
         <v>12517586.21028295</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14461,7 +14479,7 @@
         <v>12667586.21028295</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14593,7 +14611,7 @@
         <v>12753768.97518295</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14659,7 +14677,7 @@
         <v>12809606.68528295</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14692,7 +14710,7 @@
         <v>12849925.44828295</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14725,7 +14743,7 @@
         <v>12849925.44828295</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14758,7 +14776,7 @@
         <v>12841451.27718295</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14791,7 +14809,7 @@
         <v>12793326.73988295</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14824,7 +14842,7 @@
         <v>12787919.88138295</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14857,7 +14875,7 @@
         <v>12470737.87338295</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14890,7 +14908,7 @@
         <v>12477661.58438295</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14923,7 +14941,7 @@
         <v>12477761.58438295</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14956,7 +14974,7 @@
         <v>12462761.58438295</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14989,7 +15007,7 @@
         <v>12544675.33998295</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15022,7 +15040,7 @@
         <v>12544675.33998295</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15055,7 +15073,7 @@
         <v>12544675.33998295</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15088,7 +15106,7 @@
         <v>12544768.14568295</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15121,7 +15139,7 @@
         <v>12580100.58168295</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15154,7 +15172,7 @@
         <v>12580100.58168295</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15187,7 +15205,7 @@
         <v>12539493.14478295</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15220,7 +15238,7 @@
         <v>12295950.38088295</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15253,7 +15271,7 @@
         <v>12302396.87878295</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15286,7 +15304,7 @@
         <v>12266299.51778295</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15319,7 +15337,7 @@
         <v>12381590.31588295</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15352,7 +15370,7 @@
         <v>12520850.97268295</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15385,7 +15403,7 @@
         <v>12405560.17458295</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15418,7 +15436,7 @@
         <v>12419822.68928295</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15451,7 +15469,7 @@
         <v>12468637.46230455</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15484,7 +15502,7 @@
         <v>12468637.46230455</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15550,7 +15568,7 @@
         <v>12468637.46230455</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15583,7 +15601,7 @@
         <v>12447909.72210455</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15616,7 +15634,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15649,7 +15667,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15682,7 +15700,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15715,7 +15733,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15847,7 +15865,7 @@
         <v>15695605.08960027</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15880,7 +15898,7 @@
         <v>15695605.08960027</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15913,7 +15931,7 @@
         <v>16101463.32559484</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15946,7 +15964,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15979,7 +15997,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16012,7 +16030,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16045,7 +16063,7 @@
         <v>17245679.86003825</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16078,7 +16096,7 @@
         <v>15992530.76153825</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16111,7 +16129,7 @@
         <v>15996306.45203825</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16144,7 +16162,7 @@
         <v>16016934.85283826</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16177,7 +16195,7 @@
         <v>16017089.85283826</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16188,6 +16206,6 @@
       <c r="M478" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest FAB.xlsx
+++ b/BackTest/2019-11-15 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,9 +640,11 @@
         <v>-1883959.550995313</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.29</v>
+      </c>
       <c r="J7" t="n">
         <v>6.16</v>
       </c>
@@ -679,9 +681,11 @@
         <v>-1891828.850995313</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.28</v>
+      </c>
       <c r="J8" t="n">
         <v>6.16</v>
       </c>
@@ -718,11 +722,19 @@
         <v>-1732275.767267491</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,11 +763,19 @@
         <v>167062.5419032744</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -787,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -820,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -853,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -886,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -919,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -952,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -985,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1018,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1051,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1081,15 +1155,23 @@
         <v>6908503.929221612</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>1.123246753246753</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.027777777777778</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1114,7 +1196,7 @@
         <v>6835575.512721612</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1147,7 +1229,7 @@
         <v>6454558.604621612</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1609,7 +1691,7 @@
         <v>6379766.493821613</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1642,7 +1724,7 @@
         <v>6131544.781421613</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1675,7 +1757,7 @@
         <v>6157888.672021613</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1708,7 +1790,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1741,7 +1823,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1774,7 +1856,7 @@
         <v>6295022.826921612</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1807,7 +1889,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1840,7 +1922,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1873,7 +1955,7 @@
         <v>6016344.667221612</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1906,7 +1988,7 @@
         <v>6447826.230721612</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1939,7 +2021,7 @@
         <v>6506062.304921612</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2005,7 +2087,7 @@
         <v>7568465.087221612</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2071,7 +2153,7 @@
         <v>7970303.372666056</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2104,7 +2186,7 @@
         <v>9299111.228820153</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2203,7 +2285,7 @@
         <v>8663774.656320153</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2236,7 +2318,7 @@
         <v>8663694.656320153</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2269,7 +2351,7 @@
         <v>8412035.049420152</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2401,7 +2483,7 @@
         <v>9180042.180020154</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -13456,7 +13538,7 @@
         <v>10842418.57554046</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13489,7 +13571,7 @@
         <v>10937911.73358295</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13522,7 +13604,7 @@
         <v>12100533.95168295</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13951,7 +14033,7 @@
         <v>13293761.01948295</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13984,7 +14066,7 @@
         <v>13304500.88188295</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14017,7 +14099,7 @@
         <v>13297705.88038295</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14050,7 +14132,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14083,7 +14165,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14116,7 +14198,7 @@
         <v>13523122.25258295</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14149,7 +14231,7 @@
         <v>13421751.39458295</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14182,7 +14264,7 @@
         <v>11987294.30948295</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14215,7 +14297,7 @@
         <v>12311637.30278295</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14248,7 +14330,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14281,7 +14363,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14314,7 +14396,7 @@
         <v>12211645.69828295</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14380,7 +14462,7 @@
         <v>12471450.96488295</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14413,7 +14495,7 @@
         <v>12467129.45018295</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14446,7 +14528,7 @@
         <v>12517586.21028295</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14479,7 +14561,7 @@
         <v>12667586.21028295</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14611,7 +14693,7 @@
         <v>12753768.97518295</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14677,7 +14759,7 @@
         <v>12809606.68528295</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14710,7 +14792,7 @@
         <v>12849925.44828295</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14743,7 +14825,7 @@
         <v>12849925.44828295</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14776,7 +14858,7 @@
         <v>12841451.27718295</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14809,7 +14891,7 @@
         <v>12793326.73988295</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14842,7 +14924,7 @@
         <v>12787919.88138295</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14875,7 +14957,7 @@
         <v>12470737.87338295</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14908,7 +14990,7 @@
         <v>12477661.58438295</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14941,7 +15023,7 @@
         <v>12477761.58438295</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14974,7 +15056,7 @@
         <v>12462761.58438295</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15007,7 +15089,7 @@
         <v>12544675.33998295</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15040,7 +15122,7 @@
         <v>12544675.33998295</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15073,7 +15155,7 @@
         <v>12544675.33998295</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15106,7 +15188,7 @@
         <v>12544768.14568295</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15139,7 +15221,7 @@
         <v>12580100.58168295</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15172,7 +15254,7 @@
         <v>12580100.58168295</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15205,7 +15287,7 @@
         <v>12539493.14478295</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15238,7 +15320,7 @@
         <v>12295950.38088295</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15271,7 +15353,7 @@
         <v>12302396.87878295</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15304,7 +15386,7 @@
         <v>12266299.51778295</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15337,7 +15419,7 @@
         <v>12381590.31588295</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15370,7 +15452,7 @@
         <v>12520850.97268295</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15403,7 +15485,7 @@
         <v>12405560.17458295</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15436,7 +15518,7 @@
         <v>12419822.68928295</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15469,7 +15551,7 @@
         <v>12468637.46230455</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15502,7 +15584,7 @@
         <v>12468637.46230455</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15568,7 +15650,7 @@
         <v>12468637.46230455</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15601,7 +15683,7 @@
         <v>12447909.72210455</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15634,7 +15716,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15667,7 +15749,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15700,7 +15782,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15733,7 +15815,7 @@
         <v>12476485.76030456</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15865,7 +15947,7 @@
         <v>15695605.08960027</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15898,7 +15980,7 @@
         <v>15695605.08960027</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15931,7 +16013,7 @@
         <v>16101463.32559484</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15964,7 +16046,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15997,7 +16079,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16030,7 +16112,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16063,7 +16145,7 @@
         <v>17245679.86003825</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16096,7 +16178,7 @@
         <v>15992530.76153825</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16162,7 +16244,7 @@
         <v>16016934.85283826</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16195,7 +16277,7 @@
         <v>16017089.85283826</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16206,6 +16288,6 @@
       <c r="M478" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest FAB.xlsx
+++ b/BackTest/2019-11-15 BackTest FAB.xlsx
@@ -640,11 +640,9 @@
         <v>-1883959.550995313</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>6.16</v>
       </c>
@@ -681,11 +679,9 @@
         <v>-1891828.850995313</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>6.16</v>
       </c>
@@ -722,19 +718,11 @@
         <v>-1732275.767267491</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +751,11 @@
         <v>167062.5419032744</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +787,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +820,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +853,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +886,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +919,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +952,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +985,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +1018,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1051,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1155,23 +1081,15 @@
         <v>6908503.929221612</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.123246753246753</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.027777777777778</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1196,7 +1114,7 @@
         <v>6835575.512721612</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1229,7 +1147,7 @@
         <v>6454558.604621612</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1691,7 +1609,7 @@
         <v>6379766.493821613</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1724,7 +1642,7 @@
         <v>6131544.781421613</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1757,7 +1675,7 @@
         <v>6157888.672021613</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1790,7 +1708,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1823,7 +1741,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1856,7 +1774,7 @@
         <v>6295022.826921612</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1889,7 +1807,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1922,7 +1840,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1955,7 +1873,7 @@
         <v>6016344.667221612</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1988,7 +1906,7 @@
         <v>6447826.230721612</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2021,7 +1939,7 @@
         <v>6506062.304921612</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2087,7 +2005,7 @@
         <v>7568465.087221612</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2153,7 +2071,7 @@
         <v>7970303.372666056</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2186,7 +2104,7 @@
         <v>9299111.228820153</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2285,7 +2203,7 @@
         <v>8663774.656320153</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2318,7 +2236,7 @@
         <v>8663694.656320153</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2351,7 +2269,7 @@
         <v>8412035.049420152</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2483,7 +2401,7 @@
         <v>9180042.180020154</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -13538,7 +13456,7 @@
         <v>10842418.57554046</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13571,7 +13489,7 @@
         <v>10937911.73358295</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13604,7 +13522,7 @@
         <v>12100533.95168295</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13802,7 +13720,7 @@
         <v>13243793.71648295</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13835,7 +13753,7 @@
         <v>13243863.71278295</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13868,7 +13786,7 @@
         <v>13170294.45598295</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13901,7 +13819,7 @@
         <v>13095434.29988295</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13934,7 +13852,7 @@
         <v>13095434.29988295</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13967,7 +13885,7 @@
         <v>13095534.29988295</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14000,7 +13918,7 @@
         <v>13029387.92848295</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14033,7 +13951,7 @@
         <v>13293761.01948295</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14066,7 +13984,7 @@
         <v>13304500.88188295</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14099,7 +14017,7 @@
         <v>13297705.88038295</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14132,7 +14050,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14165,7 +14083,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14198,7 +14116,7 @@
         <v>13523122.25258295</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14231,7 +14149,7 @@
         <v>13421751.39458295</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14264,7 +14182,7 @@
         <v>11987294.30948295</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14297,7 +14215,7 @@
         <v>12311637.30278295</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14330,7 +14248,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14429,7 +14347,7 @@
         <v>12186272.36438295</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16046,7 +15964,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16079,7 +15997,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16112,7 +16030,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16145,7 +16063,7 @@
         <v>17245679.86003825</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16178,7 +16096,7 @@
         <v>15992530.76153825</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16211,7 +16129,7 @@
         <v>15996306.45203825</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16277,7 +16195,7 @@
         <v>16017089.85283826</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
